--- a/data/outputs/OR_altmetric/47.xlsx
+++ b/data/outputs/OR_altmetric/47.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE117"/>
+  <dimension ref="A1:CF117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1282,6 +1290,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1529,6 +1540,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,6 +1786,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2029,6 +2046,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2274,6 +2294,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2523,6 +2546,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2772,6 +2798,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3029,6 +3058,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3280,6 +3312,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3535,6 +3570,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3782,6 +3820,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4031,6 +4072,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4282,6 +4326,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4532,6 +4579,9 @@
       </c>
       <c r="CE16" t="n">
         <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
@@ -4776,6 +4826,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -5034,6 +5087,9 @@
       </c>
       <c r="CE18" t="n">
         <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="19">
@@ -5278,6 +5334,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5531,6 +5590,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5788,6 +5850,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6033,6 +6098,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6280,6 +6348,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6535,6 +6606,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6780,6 +6854,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7023,6 +7100,9 @@
         <v>0</v>
       </c>
       <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7266,6 +7346,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7507,6 +7590,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7756,6 +7842,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8005,6 +8094,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8264,6 +8356,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8511,6 +8606,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8764,6 +8862,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9015,6 +9116,9 @@
         <v>0</v>
       </c>
       <c r="CE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9260,6 +9364,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9511,6 +9618,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9762,6 +9872,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -10017,6 +10130,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10268,6 +10384,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10515,6 +10634,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10764,6 +10886,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11009,6 +11134,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11252,6 +11380,9 @@
         <v>0</v>
       </c>
       <c r="CE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11495,6 +11626,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11752,6 +11886,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -12005,6 +12142,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12248,6 +12388,9 @@
         <v>0</v>
       </c>
       <c r="CE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12493,6 +12636,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12752,6 +12898,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13007,6 +13156,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13254,6 +13406,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13505,6 +13660,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13754,6 +13912,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14011,6 +14172,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14268,6 +14432,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14513,6 +14680,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14762,6 +14932,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15015,6 +15188,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15278,6 +15454,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15529,6 +15708,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15779,6 +15961,9 @@
       </c>
       <c r="CE61" t="n">
         <v>0</v>
+      </c>
+      <c r="CF61" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="62">
@@ -16023,6 +16208,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16278,6 +16466,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16540,6 +16731,9 @@
       </c>
       <c r="CE64" t="n">
         <v>0</v>
+      </c>
+      <c r="CF64" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="65">
@@ -16784,6 +16978,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17041,6 +17238,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17290,6 +17490,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17539,6 +17742,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17784,6 +17990,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18041,6 +18250,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18290,6 +18502,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18535,6 +18750,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18792,6 +19010,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19047,6 +19268,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19296,6 +19520,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19545,6 +19772,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19798,6 +20028,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20047,6 +20280,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20296,6 +20532,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20535,6 +20774,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20778,6 +21020,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21037,6 +21282,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21288,6 +21536,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21539,6 +21790,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21785,6 +22039,9 @@
       </c>
       <c r="CE85" t="n">
         <v>0</v>
+      </c>
+      <c r="CF85" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
@@ -22025,6 +22282,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22272,6 +22532,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22522,6 +22785,9 @@
       </c>
       <c r="CE88" t="n">
         <v>0</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="89">
@@ -22766,6 +23032,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -23015,6 +23284,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23272,6 +23544,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23533,6 +23808,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23782,6 +24060,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -24025,6 +24306,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24268,6 +24552,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24505,6 +24792,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24754,6 +25044,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24997,6 +25290,9 @@
         <v>0</v>
       </c>
       <c r="CE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25238,6 +25534,9 @@
         <v>0</v>
       </c>
       <c r="CE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25473,6 +25772,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25714,6 +26016,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25951,6 +26256,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26188,6 +26496,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26438,6 +26749,9 @@
       </c>
       <c r="CE104" t="n">
         <v>0</v>
+      </c>
+      <c r="CF104" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="105">
@@ -26678,6 +26992,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26921,6 +27238,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -27168,6 +27488,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27415,6 +27738,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27674,6 +28000,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27929,6 +28258,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -28183,6 +28515,9 @@
       </c>
       <c r="CE111" t="n">
         <v>0</v>
+      </c>
+      <c r="CF111" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="112">
@@ -28425,6 +28760,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28672,6 +29010,9 @@
         <v>0</v>
       </c>
       <c r="CE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28915,6 +29256,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29164,6 +29508,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29411,6 +29758,9 @@
         <v>0</v>
       </c>
       <c r="CE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29646,6 +29996,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
